--- a/fhir-mapper-core/mappings/excel/all-mappings.xlsx
+++ b/fhir-mapper-core/mappings/excel/all-mappings.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\POC and Experiments\Projects\fhir-mapper\fhir-mapper-core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\POC and Experiments\Projects\fhir-mapper\fhir-mapper-core\mappings\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14DB52-684E-4005-88CC-2660520256C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A562F9E-4CB2-4C62-A6EC-F931129570E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="Complex Patient JSON to FHIR Ma" sheetId="2" r:id="rId2"/>
-    <sheet name="Patient FHIR to JSON Mapping" sheetId="3" r:id="rId3"/>
-    <sheet name="Patient JSON to FHIR Mapping" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Patient FHIR to JSON Mapping" sheetId="3" r:id="rId4"/>
+    <sheet name="Patient JSON to FHIR Mapping" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="227">
   <si>
     <t>Common configuration for all mappings in this workbook</t>
   </si>
@@ -613,12 +614,6 @@
     <t>managingOrganization.reference</t>
   </si>
   <si>
-    <t>fn.concat('Organization/', organizationId)</t>
-  </si>
-  <si>
-    <t>organizationId != null</t>
-  </si>
-  <si>
     <t>FHIR_TO_JSON</t>
   </si>
   <si>
@@ -698,6 +693,18 @@
   </si>
   <si>
     <t>patient-json-to-fhir</t>
+  </si>
+  <si>
+    <t>fn.concat('Organization/', $ctx.organizationId)</t>
+  </si>
+  <si>
+    <t>complex-patient-v2</t>
+  </si>
+  <si>
+    <t>fn.concat('Organization/', $ctx.mrnSystem)</t>
+  </si>
+  <si>
+    <t>$ctx.mrnSystem != null</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1250,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1259,7 @@
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
@@ -1262,10 +1269,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,10 +2958,10 @@
         <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2978,6 +2985,135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB254AD-BB6B-449C-A22C-99A439A390B7}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -3001,10 +3137,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3012,7 +3148,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3028,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3068,7 +3204,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -3103,7 +3239,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -3138,7 +3274,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -3173,7 +3309,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -3200,15 +3336,15 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -3238,42 +3374,42 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
         <v>210</v>
-      </c>
-      <c r="F12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3281,11 +3417,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3303,10 +3439,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3322,7 +3458,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3370,7 +3506,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -3405,7 +3541,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3429,7 +3565,7 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -3475,7 +3611,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -3540,7 +3676,7 @@
         <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3557,7 +3693,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -3592,10 +3728,10 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>

--- a/fhir-mapper-core/mappings/excel/all-mappings.xlsx
+++ b/fhir-mapper-core/mappings/excel/all-mappings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\POC and Experiments\Projects\fhir-mapper\fhir-mapper-core\mappings\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A562F9E-4CB2-4C62-A6EC-F931129570E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365158D0-2B2F-43A7-BF6E-0B5084844DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
-    <sheet name="Complex Patient JSON to FHIR Ma" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Patient-V1" sheetId="2" r:id="rId2"/>
+    <sheet name="Patient-V2" sheetId="5" r:id="rId3"/>
     <sheet name="Patient FHIR to JSON Mapping" sheetId="3" r:id="rId4"/>
     <sheet name="Patient JSON to FHIR Mapping" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB254AD-BB6B-449C-A22C-99A439A390B7}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
